--- a/zxkj-modules/zxkj-platform/src/main/resources/template/xiaoxiangqingdan2.xlsx
+++ b/zxkj-modules/zxkj-platform/src/main/resources/template/xiaoxiangqingdan2.xlsx
@@ -1,27 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1-工作相关\00-个人资料\02-智能财税\进销项、银行对账单导入模板v2019.07.31\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView windowWidth="19890" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="销项清单" sheetId="1" r:id="rId1"/>
     <sheet name="客户名称" sheetId="2" r:id="rId2"/>
     <sheet name="业务类型" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -82,7 +72,7 @@
     <t>收入-主营业务收入-商品销售收入</t>
   </si>
   <si>
-    <t>北京大账房信息技术有限公司</t>
+    <t>北京xxx信息技术有限公司</t>
   </si>
   <si>
     <t>收入-主营业务收入-服(劳)务收入</t>
@@ -109,54 +99,371 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00000000_);[Red]\(#,##0.00000000\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00000000_);[Red]\(#,##0.00000000\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -166,48 +473,290 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -215,22 +764,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -239,43 +789,86 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -324,7 +917,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,7 +952,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,206 +1126,195 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="31.875" customWidth="1"/>
+    <col min="12" max="12" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+    <row r="2" spans="1:12">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>43467</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="12">
         <v>1</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="16">
         <v>15533.98</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="16">
         <v>466.02</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+      <formula1>客户名称!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+      <formula1>业务类型!$A:$A</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>客户名称!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>L1:L1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>业务类型!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>K1:K1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/zxkj-modules/zxkj-platform/src/main/resources/template/xiaoxiangqingdan2.xlsx
+++ b/zxkj-modules/zxkj-platform/src/main/resources/template/xiaoxiangqingdan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590"/>
+    <workbookView windowWidth="19815" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="销项清单" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可不选，不选则默认为专票</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>序号</t>
   </si>
   <si>
+    <t>发票类型</t>
+  </si>
+  <si>
     <t>发票代码</t>
   </si>
   <si>
@@ -52,6 +87,9 @@
   </si>
   <si>
     <t>客户名称</t>
+  </si>
+  <si>
+    <t>增值税专用发票</t>
   </si>
   <si>
     <t>5100152130</t>
@@ -102,14 +140,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00000000_);[Red]\(#,##0.00000000\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00000000_);[Red]\(#,##0.00000000\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,81 +172,114 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,51 +293,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -284,78 +333,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,97 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +571,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -533,6 +600,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,30 +646,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -590,26 +659,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +679,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -765,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -780,23 +829,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -806,6 +852,9 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1132,31 +1181,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="31.875" customWidth="1"/>
-    <col min="12" max="12" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="31.875" customWidth="1"/>
+    <col min="13" max="13" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1165,81 +1215,91 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="8">
+    <row r="2" spans="1:13">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10">
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9">
         <v>43467</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="12">
+      <c r="G2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="15">
         <v>1</v>
       </c>
-      <c r="I2" s="16">
+      <c r="J2" s="16">
         <v>15533.98</v>
       </c>
-      <c r="J2" s="16">
+      <c r="K2" s="16">
         <v>466.02</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>18</v>
+      <c r="L2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+      <formula1>"增值税专用发票,增值税普通发票"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
       <formula1>客户名称!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>业务类型!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1275,42 +1335,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
